--- a/data/vehicles/Brzesko/Brzesko_vehicles_pool.xlsx
+++ b/data/vehicles/Brzesko/Brzesko_vehicles_pool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\vehicles\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E4737FD-1A38-4D04-870F-C1F9B630EA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0104C20B-7950-4F69-BCE6-14CC4B57E4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1365" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7470" yWindow="1770" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>pool</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>fake_uber</t>
   </si>
 </sst>
 </file>
@@ -144,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,9 +190,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,26 +225,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,26 +260,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,19 +436,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,8 +471,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -523,8 +499,11 @@
       <c r="G2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -548,8 +527,11 @@
       <c r="G3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -573,8 +555,11 @@
       <c r="G4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -598,8 +583,11 @@
       <c r="G5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -623,8 +611,11 @@
       <c r="G6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -648,8 +639,11 @@
       <c r="G7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -673,8 +667,11 @@
       <c r="G8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -698,8 +695,11 @@
       <c r="G9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -723,8 +723,11 @@
       <c r="G10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -748,8 +751,11 @@
       <c r="G11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -772,6 +778,9 @@
       </c>
       <c r="G12">
         <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/vehicles/Brzesko/Brzesko_vehicles_pool.xlsx
+++ b/data/vehicles/Brzesko/Brzesko_vehicles_pool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\vehicles\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0104C20B-7950-4F69-BCE6-14CC4B57E4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E40849-1ABA-4702-9F82-C30BA695B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="1770" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>operator</t>
   </si>
   <si>
-    <t>fake_uber</t>
+    <t>city_taxi</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
